--- a/Base/Teams/Jets/Players Yards Data.xlsx
+++ b/Base/Teams/Jets/Players Yards Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
   <si>
     <t>Z.Wilson</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>N.Bawden</t>
+  </si>
+  <si>
+    <t>D.Montgomery</t>
   </si>
   <si>
     <t>T.Kroft</t>
@@ -441,13 +444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,73 +514,79 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="W2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -587,13 +596,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,73 +666,79 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="W2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Jets/Players Yards Data.xlsx
+++ b/Base/Teams/Jets/Players Yards Data.xlsx
@@ -35,7 +35,7 @@
     <t>T.Johnson</t>
   </si>
   <si>
-    <t>Mi.Carter</t>
+    <t>M.Carter</t>
   </si>
   <si>
     <t>L.Perine</t>

--- a/Base/Teams/Jets/Players Yards Data.xlsx
+++ b/Base/Teams/Jets/Players Yards Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="25">
   <si>
     <t>Z.Wilson</t>
   </si>
@@ -35,7 +35,7 @@
     <t>T.Johnson</t>
   </si>
   <si>
-    <t>M.Carter</t>
+    <t>Mi.Carter</t>
   </si>
   <si>
     <t>L.Perine</t>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>D.Montgomery</t>
+  </si>
+  <si>
+    <t>K.Yeboah</t>
   </si>
   <si>
     <t>T.Kroft</t>
@@ -444,13 +447,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,76 +520,82 @@
       <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="X2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -596,13 +605,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,76 +678,82 @@
       <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="X2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Jets/Players Yards Data.xlsx
+++ b/Base/Teams/Jets/Players Yards Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="26">
   <si>
     <t>Z.Wilson</t>
   </si>
@@ -32,7 +32,7 @@
     <t>T.Coleman</t>
   </si>
   <si>
-    <t>T.Johnson</t>
+    <t>Ty.Johnson</t>
   </si>
   <si>
     <t>Mi.Carter</t>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>K.Yeboah</t>
+  </si>
+  <si>
+    <t>T.Black</t>
   </si>
   <si>
     <t>T.Kroft</t>
@@ -447,13 +450,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,79 +526,85 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -605,13 +614,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,79 +690,85 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
